--- a/bin/Debug/Autorization/Users.xlsx
+++ b/bin/Debug/Autorization/Users.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\GitHubProjectTest v2\bin\Debug\Autorization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubProject\bin\Debug\Autorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEE90CC-CD9E-4558-8F8A-872DD9B8B22E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="930" windowWidth="14295" windowHeight="13620" xr2:uid="{4781A1C0-84AF-4A99-BA4F-4AB4C9A6CFBA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12696" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Login</t>
   </si>
@@ -43,11 +37,14 @@
   <si>
     <t>Test</t>
   </si>
+  <si>
+    <t>Vadim</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +111,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -126,7 +123,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -173,23 +170,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -225,23 +205,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -393,14 +356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F363BF-8D62-4817-AD1F-38D91A19A35A}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -416,12 +379,20 @@
         <v>-1623739142</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>1508428738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-1576029606</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/Autorization/Users.xlsx
+++ b/bin/Debug/Autorization/Users.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubProject\bin\Debug\Autorization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\bin\Debug\Autorization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12696" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Login</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Vadim</t>
+  </si>
+  <si>
+    <t>Example</t>
   </si>
 </sst>
 </file>
@@ -357,13 +360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,7 +374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -379,7 +382,7 @@
         <v>-1623739142</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -387,12 +390,20 @@
         <v>1508428738</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>-1576029606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1508494276</v>
       </c>
     </row>
   </sheetData>
